--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>1000.0</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
-          <t>2001.0</t>
+          <t>1000.0</t>
         </is>
       </c>
     </row>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,18 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,62 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>500</v>
+      </c>
+      <c r="B5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>500</v>
+      </c>
+      <c r="B6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>500</v>
+      </c>
+      <c r="B7" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>500</v>
+      </c>
+      <c r="B8" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,18 +447,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="B2" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4">
@@ -466,39 +466,103 @@
         <v>5000</v>
       </c>
       <c r="B4" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B5" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B7" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B8" t="n">
-        <v>500</v>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,126 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,34 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6000.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6000.6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5000.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,34 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6000.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6000.6</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5000.0</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1025.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1040.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/lista_calc_Perfumaria.xlsx
+++ b/storage/lista_calc_Perfumaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
-          <t>1025.0</t>
+          <t>2000.0</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
-          <t>1040.0</t>
+          <t>2000.0</t>
         </is>
       </c>
     </row>
